--- a/biology/Neurosciences/Habileté_de_construction_visuo-spatiale/Habileté_de_construction_visuo-spatiale.xlsx
+++ b/biology/Neurosciences/Habileté_de_construction_visuo-spatiale/Habileté_de_construction_visuo-spatiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Habilet%C3%A9_de_construction_visuo-spatiale</t>
+          <t>Habileté_de_construction_visuo-spatiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habileté de construction visuo-spatiale ou visuoconstruction[1] désigne l’ensemble des processus du cerveau qui permettent d'analyser, de comprendre et de se représenter l’espace (l'environnement) en deux ou trois dimensions. Parmi les processus nécessaires pour y arriver, on note l'imagerie et la navigation mentale, l'évaluation des distances et de la profondeur ainsi que la construction visuo-spatiale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habileté de construction visuo-spatiale ou visuoconstruction désigne l’ensemble des processus du cerveau qui permettent d'analyser, de comprendre et de se représenter l’espace (l'environnement) en deux ou trois dimensions. Parmi les processus nécessaires pour y arriver, on note l'imagerie et la navigation mentale, l'évaluation des distances et de la profondeur ainsi que la construction visuo-spatiale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Habilet%C3%A9_de_construction_visuo-spatiale</t>
+          <t>Habileté_de_construction_visuo-spatiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Processus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus spécifiquement, le processus de construction visuo-spatiale ou la visuo-construction réfère à la capacité à organiser des parties afin de produire une forme[3]. Ceci permettrait donc de reproduire des dessins, de bâtir des objets ou des formes à partir de composantes[2].
-Dans la littérature, il est constaté que le terme « habiletés de construction visuo-spatiale » est rarement cité spécifiquement. La majorité des auteurs parlent davantage de déclinaisons et de termes plus généraux (« la visuo-construction » ou « les habiletés visuo-spatiales »). Néanmoins, ce qui en ressort est que les habiletés de construction visuo-spatiale s'inscrivent dans la grande catégorie des habiletés visuo-spatiales[4]. Il est donc important de définir ce qui est plus général avant d'en arriver au plus spécifique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus spécifiquement, le processus de construction visuo-spatiale ou la visuo-construction réfère à la capacité à organiser des parties afin de produire une forme. Ceci permettrait donc de reproduire des dessins, de bâtir des objets ou des formes à partir de composantes.
+Dans la littérature, il est constaté que le terme « habiletés de construction visuo-spatiale » est rarement cité spécifiquement. La majorité des auteurs parlent davantage de déclinaisons et de termes plus généraux (« la visuo-construction » ou « les habiletés visuo-spatiales »). Néanmoins, ce qui en ressort est que les habiletés de construction visuo-spatiale s'inscrivent dans la grande catégorie des habiletés visuo-spatiales. Il est donc important de définir ce qui est plus général avant d'en arriver au plus spécifique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Habilet%C3%A9_de_construction_visuo-spatiale</t>
+          <t>Habileté_de_construction_visuo-spatiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Activités faisant intervenir les habiletés de construction visuo-spatiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les habiletés de construction visuo-spatiale peuvent être observées au quotidien. Plus spécifiquement, chez l’enfant, ces habiletés sont nécessaires entre autres lors de la réalisation d’activités graphiques (ex : dessin et écriture), de la construction à l’aide de blocs et de la réalisation de casse-tête. De plus, il est bon de noter que ces habiletés suivent une séquence de développement influencée par la maturation neurologique et sujette à des différences individuelles.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Habilet%C3%A9_de_construction_visuo-spatiale</t>
+          <t>Habileté_de_construction_visuo-spatiale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Rôle du psychomotricien, de l'ergothérapeute ou de l'orthoptiste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est important de comprendre que des difficultés dans l’acquisition des habiletés de construction visuo-spatiale peuvent occasionner à l’enfant diverses perturbations lors de ses occupations principales, soit durant sa scolarité[5], soit lors des jeux et loisirs. Ainsi, les troubles de construction visuo-spatiale sont susceptibles d’affecter le rendement et la participation de l’enfant dans ses occupations.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est important de comprendre que des difficultés dans l’acquisition des habiletés de construction visuo-spatiale peuvent occasionner à l’enfant diverses perturbations lors de ses occupations principales, soit durant sa scolarité, soit lors des jeux et loisirs. Ainsi, les troubles de construction visuo-spatiale sont susceptibles d’affecter le rendement et la participation de l’enfant dans ses occupations.
 Par les fondements de chaque profession, ergothérapeute, orthoptiste et psychomotricien sont des acteurs amenés à intervenir auprès de ce type de patientèle[réf. souhaitée]. L'orthoptiste, spécialiste des troubles de la vision binoculaire, sera le rééducateur privilégié[réf. nécessaire] pour dépister et rééduquer les patients présentant de troubles visuo-spatiaux.
 </t>
         </is>
